--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_A_123_Sunset_Boulevard_Budget.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_A_123_Sunset_Boulevard_Budget.xlsx
@@ -466,7 +466,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -525,7 +524,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -533,7 +531,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -594,7 +591,6 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
@@ -3616,7 +3612,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
